--- a/ClosedXML.Tests/Resource/Examples/Loading/ChangingBasicTable.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Loading/ChangingBasicTable.xlsx
@@ -728,10 +728,10 @@
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="7.980625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="9.000625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="8.580625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="11.950625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="15.590625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="8.930625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="8.520625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="11.840625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="15.550625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:6">

--- a/ClosedXML.Tests/Resource/Examples/Loading/ChangingBasicTable.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Loading/ChangingBasicTable.xlsx
@@ -731,7 +731,7 @@
     <x:col min="3" max="3" width="8.930625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="8.520625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="11.840625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="15.550625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="15.560625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:6">

--- a/ClosedXML.Tests/Resource/Examples/Loading/ChangingBasicTable.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Loading/ChangingBasicTable.xlsx
@@ -727,11 +727,11 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="6.640625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="6.570625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="7.240625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="10.100625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="12.270625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="7.300625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="7.240625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="7.840625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="10.340625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="12.310625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:6">

--- a/ClosedXML.Tests/Resource/Examples/Loading/ChangingBasicTable.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Loading/ChangingBasicTable.xlsx
@@ -727,11 +727,11 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="7.300625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="7.240625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="7.840625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="10.340625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="12.310625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="9.250625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="10.290625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="9.950625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="13.220625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="16.820625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:6">

--- a/ClosedXML.Tests/Resource/Examples/Loading/ChangingBasicTable.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Loading/ChangingBasicTable.xlsx
@@ -727,11 +727,11 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="9.250625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="10.290625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="9.950625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="13.220625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="16.820625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="9.620625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="10.710625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="10.360625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="13.780625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="17.560625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:6">

--- a/ClosedXML.Tests/Resource/Examples/Loading/ChangingBasicTable.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Loading/ChangingBasicTable.xlsx
@@ -727,11 +727,11 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="9.620625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="10.710625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="10.360625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="13.780625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="17.560625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="9.096636" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="10.114759" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="9.781075" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="12.977434" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="16.50401" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:6">

--- a/ClosedXML.Tests/Resource/Examples/Loading/ChangingBasicTable.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Loading/ChangingBasicTable.xlsx
@@ -727,9 +727,9 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="7.980625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="7.870625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="9.000625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="8.580625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="8.440625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="11.950625" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="15.590625" style="0" customWidth="1"/>
   </x:cols>

--- a/ClosedXML.Tests/Resource/Examples/Loading/ChangingBasicTable.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Loading/ChangingBasicTable.xlsx
@@ -727,11 +727,11 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="7.870625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="9.000625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="8.440625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="11.950625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="15.590625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="7.990625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="9.040625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="8.520625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="11.920625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="15.720625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:6">

--- a/ClosedXML.Tests/Resource/Examples/Loading/ChangingBasicTable.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Loading/ChangingBasicTable.xlsx
@@ -738,10 +738,10 @@
       <x:c r="B2" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="C2" s="2" t="s"/>
-      <x:c r="D2" s="2" t="s"/>
-      <x:c r="E2" s="2" t="s"/>
-      <x:c r="F2" s="3" t="s"/>
+      <x:c r="C2" s="2"/>
+      <x:c r="D2" s="2"/>
+      <x:c r="E2" s="2"/>
+      <x:c r="F2" s="3"/>
     </x:row>
     <x:row r="3" spans="1:6">
       <x:c r="B3" s="15" t="s">

--- a/ClosedXML.Tests/Resource/Examples/Loading/ChangingBasicTable.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Loading/ChangingBasicTable.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
     <x:t>Contacts</x:t>
   </x:si>
@@ -67,8 +67,8 @@
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:numFmts count="3">
     <x:numFmt numFmtId="0" formatCode=""/>
-    <x:numFmt numFmtId="165" formatCode="$ #,##0"/>
-    <x:numFmt numFmtId="166" formatCode="MM/dd/yyyy"/>
+    <x:numFmt numFmtId="164" formatCode="$ #,##0"/>
+    <x:numFmt numFmtId="165" formatCode="MM/dd/yyyy"/>
   </x:numFmts>
   <x:fonts count="2">
     <x:font>
@@ -313,7 +313,7 @@
     <x:xf numFmtId="15" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -325,7 +325,7 @@
     <x:xf numFmtId="15" fontId="0" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="4" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -337,10 +337,10 @@
     <x:xf numFmtId="0" fontId="1" fillId="4" borderId="6" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="166" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="166" fontId="0" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
@@ -385,7 +385,7 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -401,7 +401,7 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -417,11 +417,11 @@
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>

--- a/ClosedXML.Tests/Resource/Examples/Loading/ChangingBasicTable.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Loading/ChangingBasicTable.xlsx
@@ -727,11 +727,11 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="7.990625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="9.040625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="8.520625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="11.920625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="15.720625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="7.282054" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="8.424911" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="7.996339" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="10.996339" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="14.853482" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:6">

--- a/ClosedXML.Tests/Resource/Examples/Loading/ChangingBasicTable.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Loading/ChangingBasicTable.xlsx
@@ -716,7 +716,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>

--- a/ClosedXML.Tests/Resource/Examples/Loading/ChangingBasicTable.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Loading/ChangingBasicTable.xlsx
@@ -6,7 +6,7 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Contacts" sheetId="2" r:id="rId2"/>
+    <x:sheet name="Contacts" sheetId="1" r:id="rId2"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
